--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3239681.585952028</v>
+        <v>3237136.399878743</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.97995768823944</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.99240337009294</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>37.94448079992561</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>174.5105150288495</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>86.1145648561627</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>29.52694444781033</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.57002555840213</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.0803865345827</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>145.7627116979855</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>14.9215867835839</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>40.53421095546966</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>217.6587144826188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165768</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>112.5133406574299</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057989</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076587</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1392.984777118936</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1024.022260178525</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>665.7565615717742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>665.7565615717742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2169.72394915887</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1779.584617183058</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>433.0775852377275</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.875843514334</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.114058152426</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.051170808855</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.282515538741</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.816757277661</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>819.6774253018493</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4647,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1205.204479880303</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C8" t="n">
-        <v>836.241962939891</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D8" t="n">
-        <v>477.9762643331404</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331404</v>
+        <v>826.0245759725606</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>819.0790752233571</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>401.9912934597846</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>83.76817823229408</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,22 +4805,22 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>649.4448552616556</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2686.472297524887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2686.472297524887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2686.472297524887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2355.409410181316</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2355.409410181316</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1981.943651920236</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.804319944424</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1726.935017112062</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2276.371025864785</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>490.3302205638821</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>201.1780441415619</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>799.1931750738223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>799.1931750738223</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>799.1931750738223</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5607,10 +5607,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.8464821474262</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>94.65038286230612</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6005,34 +6005,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>985.5125840134625</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,10 +6236,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6446,10 +6446,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694706</v>
@@ -6491,7 +6491,7 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687896</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6622,49 +6622,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4041655335318</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>664.287526121196</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>516.3744325388029</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6917,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,7 +6947,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1577.52840832642</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
         <v>1577.52840832642</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191924</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>923.067041434951</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.043492616109</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,25 +7625,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
@@ -7667,28 +7667,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8225,7 +8225,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,25 +8453,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>31.78975210768598</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>366.568374812572</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>230.7984289569017</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>130.4994612393473</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>32.90770736550131</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137842</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>711132.8264488541</v>
+        <v>711132.8264488542</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.274728755</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
         <v>706253.2747287551</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="O2" t="n">
         <v>706253.2747287552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682731</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682737</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682754</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682771</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682736</v>
-      </c>
       <c r="J4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682809</v>
+        <v>5677.536566682712</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682727</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682769</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682782</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-164337.8241097394</v>
+        <v>-164337.8241097391</v>
       </c>
       <c r="C6" t="n">
         <v>425630.0551048052</v>
       </c>
       <c r="D6" t="n">
-        <v>269826.2490110098</v>
+        <v>269826.2490110099</v>
       </c>
       <c r="E6" t="n">
-        <v>-171599.4830426412</v>
+        <v>-171634.2209680766</v>
       </c>
       <c r="F6" t="n">
-        <v>599453.2083381655</v>
+        <v>599418.47041273</v>
       </c>
       <c r="G6" t="n">
-        <v>599453.2083381652</v>
+        <v>599418.4704127302</v>
       </c>
       <c r="H6" t="n">
-        <v>599453.2083381653</v>
+        <v>599418.4704127298</v>
       </c>
       <c r="I6" t="n">
-        <v>599453.2083381653</v>
+        <v>599418.4704127298</v>
       </c>
       <c r="J6" t="n">
-        <v>423029.989145572</v>
+        <v>422995.2512201365</v>
       </c>
       <c r="K6" t="n">
-        <v>599453.2083381655</v>
+        <v>599418.4704127297</v>
       </c>
       <c r="L6" t="n">
-        <v>599453.2083381657</v>
+        <v>599418.4704127297</v>
       </c>
       <c r="M6" t="n">
-        <v>475244.6976301069</v>
+        <v>475209.9597046714</v>
       </c>
       <c r="N6" t="n">
-        <v>599453.2083381658</v>
+        <v>599418.4704127302</v>
       </c>
       <c r="O6" t="n">
-        <v>599453.2083381657</v>
+        <v>599418.4704127299</v>
       </c>
       <c r="P6" t="n">
-        <v>599453.2083381655</v>
+        <v>599418.4704127301</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>366.896088053472</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>168.153135579926</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>327.328410971082</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>41.93780532880834</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>166.0230784676653</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>88.96909644607997</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>144.082861569738</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27910,10 +27910,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.75159364735461</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>106.3749316258425</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K36" t="n">
-        <v>297.1808238847177</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>652.0478969157701</v>
+        <v>167.4835451665585</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319857</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,13 +34232,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35173,25 +35173,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>172.5257681089518</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>567.231750219304</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>340.5859315097288</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="K36" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>509.9138629937518</v>
+        <v>25.34951124454015</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875412</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
